--- a/data_fiktif_gaji.xlsx
+++ b/data_fiktif_gaji.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository-VBAExcel\PPh21Counter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCFEE0-B252-4410-9835-0A1C7BDED8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED705912-779C-444A-ABE0-B28B779751E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="DATA TER" sheetId="29" r:id="rId2"/>
+    <sheet name="DATA TER" sheetId="31" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Nama</t>
   </si>
@@ -357,17 +357,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -672,48 +672,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F4F40E94-79A3-4A88-9662-1A31BCA9A4DA}" name="tabelA" displayName="tabelA" ref="A3:C47" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7C9B7627-2E82-4C5F-9A79-17CEB11504C0}" name="tabelA" displayName="tabelA" ref="A3:C47" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A3:C47" xr:uid="{C11D2EF1-5F21-4727-A8D2-9A2AD6CA84A5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7FC4661C-6674-4203-9068-C0A5DD844CCF}" name="Batas Bawah" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{8FBB73BD-D373-4CA2-9BBA-4A513332A25D}" name="Batas Atas" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9D375FD8-B394-4EA8-AD83-CDECC41C96AC}" name="TER" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{DC7AF016-B71B-4415-AFD7-C5131667F8B7}" name="Batas Bawah" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{0D1A457F-DAC2-460B-9D33-55D4787714F5}" name="Batas Atas" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{55620897-D4A0-4B59-93AF-FC23C92552EA}" name="TER" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DE779ED0-68F6-47A2-B6E9-EBAEC347BE2A}" name="tabelB" displayName="tabelB" ref="E3:G43" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3743F7D-2D16-4133-886C-822117237B84}" name="tabelB" displayName="tabelB" ref="E3:G43" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="E3:G43" xr:uid="{69705ACA-2DBC-4C70-98FB-8AB340DC12D5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EFA4AD3F-1DA3-4CF9-98F1-667886300FB6}" name="Batas Bawah" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{041E6ED6-286D-480D-B0A2-0E35F86A5A2D}" name="Batas Atas" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F307C424-3B41-4914-B462-5CC6C0422840}" name="TER" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{656CC3FB-B393-42F4-B48D-ABAAFD41609B}" name="Batas Bawah" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B4484480-0147-4A4B-AB14-1B9D655DC0DE}" name="Batas Atas" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{26868958-DB82-4046-851C-FAF574F861DF}" name="TER" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2E1FE6C6-DAEC-4270-A5BC-A3F3FBCC926A}" name="tabelC" displayName="tabelC" ref="I3:K44" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{92674557-4662-4190-B092-75166B14CA8D}" name="tabelC" displayName="tabelC" ref="I3:K44" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="I3:K44" xr:uid="{1C0C2D21-196E-40EB-9A92-19616E93A876}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D36FAD66-40B1-472D-ABDA-2A1B391C43A6}" name="Batas Bawah" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EDB4232B-2DBC-4B96-8EE9-EBA159188A4A}" name="Batas Atas" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{D1F12FD5-309F-4366-A27C-64E31CEF57C3}" name="TER" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5461C59F-7866-444E-9EC9-2524BF77C98D}" name="Batas Bawah" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2AE88777-913E-4E70-96EA-F2FE9FF1D516}" name="Batas Atas" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{43C0E6F4-BF9F-4A54-8A32-4A57B12BE4D0}" name="TER" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{946E946D-C0C3-413D-9E67-D16B042FC117}" name="tabelPTKP" displayName="tabelPTKP" ref="A50:C61" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F55B336A-0595-4AA8-9D4C-160F81C598EB}" name="tabelPTKP" displayName="tabelPTKP" ref="A50:C61" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A50:C61" xr:uid="{D8521933-8F58-48FA-AA2E-4FA4BC4FB281}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C90ECC8D-3FE5-414E-BDCA-9AEC32133C5F}" name="Kode"/>
-    <tableColumn id="2" xr3:uid="{F9F7481C-0A93-42AE-9F71-F8354E6F14CC}" name="Nilai" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{60218AD0-82C3-4016-97C9-E4B0C07D25A9}" name="Kategori" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4DE8107B-5FBA-4A2B-9F7E-EDA137BEA2D3}" name="Kode"/>
+    <tableColumn id="2" xr3:uid="{C08AF630-54EB-4317-98BA-502879546C70}" name="Nilai" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D724FBC-82DB-435E-AA8A-F7BBB9C7B20B}" name="Kategori" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,7 +1043,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1083,13 +1085,16 @@
       <c r="C2" s="2">
         <v>12474679</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="17" t="str">
+        <f>cariTER($B2)</f>
+        <v>B</v>
+      </c>
+      <c r="E2" s="18">
+        <f>tarifTER($D2, $C2)</f>
         <v>0.03</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="19">
+        <f>PPH21TER($E2, $C2)</f>
         <v>374240</v>
       </c>
     </row>
@@ -1103,13 +1108,16 @@
       <c r="C3" s="2">
         <v>12181870</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="D3" s="17" t="str">
+        <f>cariTER($B3)</f>
+        <v>B</v>
+      </c>
+      <c r="E3" s="18">
+        <f>tarifTER($D3, $C3)</f>
         <v>0.03</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
+        <f>PPH21TER($E3, $C3)</f>
         <v>365456</v>
       </c>
     </row>
@@ -1123,13 +1131,16 @@
       <c r="C4" s="2">
         <v>11846136</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="17" t="str">
+        <f>cariTER($B4)</f>
+        <v>C</v>
+      </c>
+      <c r="E4" s="18">
+        <f>tarifTER($D4, $C4)</f>
         <v>0.02</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
+        <f>PPH21TER($E4, $C4)</f>
         <v>236922</v>
       </c>
     </row>
@@ -1143,13 +1154,16 @@
       <c r="C5" s="2">
         <v>9166123</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="17" t="str">
+        <f>cariTER($B5)</f>
+        <v>B</v>
+      </c>
+      <c r="E5" s="18">
+        <f>tarifTER($D5, $C5)</f>
         <v>0.01</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
+        <f>PPH21TER($E5, $C5)</f>
         <v>91661</v>
       </c>
     </row>
@@ -1163,13 +1177,16 @@
       <c r="C6" s="2">
         <v>7120786</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="17" t="str">
+        <f>cariTER($B6)</f>
+        <v>C</v>
+      </c>
+      <c r="E6" s="18">
+        <f>tarifTER($D6, $C6)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
+        <f>PPH21TER($E6, $C6)</f>
         <v>35603</v>
       </c>
     </row>
@@ -1183,13 +1200,16 @@
       <c r="C7" s="2">
         <v>9717980</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="17" t="str">
+        <f>cariTER($B7)</f>
+        <v>B</v>
+      </c>
+      <c r="E7" s="18">
+        <f>tarifTER($D7, $C7)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
+        <f>PPH21TER($E7, $C7)</f>
         <v>145769</v>
       </c>
     </row>
@@ -1203,13 +1223,16 @@
       <c r="C8" s="2">
         <v>9577595</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="17" t="str">
+        <f>cariTER($B8)</f>
+        <v>B</v>
+      </c>
+      <c r="E8" s="18">
+        <f>tarifTER($D8, $C8)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
+        <f>PPH21TER($E8, $C8)</f>
         <v>143663</v>
       </c>
     </row>
@@ -1223,13 +1246,16 @@
       <c r="C9" s="2">
         <v>14444995</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="D9" s="17" t="str">
+        <f>cariTER($B9)</f>
+        <v>B</v>
+      </c>
+      <c r="E9" s="18">
+        <f>tarifTER($D9, $C9)</f>
         <v>0.05</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
+        <f>PPH21TER($E9, $C9)</f>
         <v>722249</v>
       </c>
     </row>
@@ -1243,13 +1269,16 @@
       <c r="C10" s="2">
         <v>3614967</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="17" t="str">
+        <f>cariTER($B10)</f>
+        <v>A</v>
+      </c>
+      <c r="E10" s="18">
+        <f>tarifTER($D10, $C10)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
+        <f>PPH21TER($E10, $C10)</f>
         <v>0</v>
       </c>
     </row>
@@ -1263,13 +1292,16 @@
       <c r="C11" s="2">
         <v>4064875</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="17" t="str">
+        <f>cariTER($B11)</f>
+        <v>B</v>
+      </c>
+      <c r="E11" s="18">
+        <f>tarifTER($D11, $C11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
+        <f>PPH21TER($E11, $C11)</f>
         <v>0</v>
       </c>
     </row>
@@ -1283,13 +1315,16 @@
       <c r="C12" s="2">
         <v>7600440</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="17" t="str">
+        <f>cariTER($B12)</f>
+        <v>C</v>
+      </c>
+      <c r="E12" s="18">
+        <f>tarifTER($D12, $C12)</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
+        <f>PPH21TER($E12, $C12)</f>
         <v>57003</v>
       </c>
     </row>
@@ -1303,13 +1338,16 @@
       <c r="C13" s="2">
         <v>13236929</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="17" t="str">
+        <f>cariTER($B13)</f>
+        <v>B</v>
+      </c>
+      <c r="E13" s="18">
+        <f>tarifTER($D13, $C13)</f>
         <v>0.04</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
+        <f>PPH21TER($E13, $C13)</f>
         <v>529477</v>
       </c>
     </row>
@@ -1323,13 +1361,16 @@
       <c r="C14" s="2">
         <v>7423463</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="17" t="str">
+        <f>cariTER($B14)</f>
+        <v>C</v>
+      </c>
+      <c r="E14" s="18">
+        <f>tarifTER($D14, $C14)</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
+        <f>PPH21TER($E14, $C14)</f>
         <v>55675</v>
       </c>
     </row>
@@ -1343,13 +1384,16 @@
       <c r="C15" s="2">
         <v>14222203</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="17" t="str">
+        <f>cariTER($B15)</f>
+        <v>B</v>
+      </c>
+      <c r="E15" s="18">
+        <f>tarifTER($D15, $C15)</f>
         <v>0.05</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
+        <f>PPH21TER($E15, $C15)</f>
         <v>711110</v>
       </c>
     </row>
@@ -1363,13 +1407,16 @@
       <c r="C16" s="2">
         <v>13840732</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="17" t="str">
+        <f>cariTER($B16)</f>
+        <v>B</v>
+      </c>
+      <c r="E16" s="18">
+        <f>tarifTER($D16, $C16)</f>
         <v>0.05</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
+        <f>PPH21TER($E16, $C16)</f>
         <v>692036</v>
       </c>
     </row>
@@ -1383,13 +1430,16 @@
       <c r="C17" s="2">
         <v>12184790</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="D17" s="17" t="str">
+        <f>cariTER($B17)</f>
+        <v>B</v>
+      </c>
+      <c r="E17" s="18">
+        <f>tarifTER($D17, $C17)</f>
         <v>0.03</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
+        <f>PPH21TER($E17, $C17)</f>
         <v>365543</v>
       </c>
     </row>
@@ -1403,13 +1453,16 @@
       <c r="C18" s="2">
         <v>11153834</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="17" t="str">
+        <f>cariTER($B18)</f>
+        <v>C</v>
+      </c>
+      <c r="E18" s="18">
+        <f>tarifTER($D18, $C18)</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
+        <f>PPH21TER($E18, $C18)</f>
         <v>195192</v>
       </c>
     </row>
@@ -1423,13 +1476,16 @@
       <c r="C19" s="2">
         <v>4192997</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="D19" s="17" t="str">
+        <f>cariTER($B19)</f>
+        <v>A</v>
+      </c>
+      <c r="E19" s="18">
+        <f>tarifTER($D19, $C19)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
+        <f>PPH21TER($E19, $C19)</f>
         <v>0</v>
       </c>
     </row>
@@ -1443,13 +1499,16 @@
       <c r="C20" s="2">
         <v>3580784</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="D20" s="17" t="str">
+        <f>cariTER($B20)</f>
+        <v>B</v>
+      </c>
+      <c r="E20" s="18">
+        <f>tarifTER($D20, $C20)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
+        <f>PPH21TER($E20, $C20)</f>
         <v>0</v>
       </c>
     </row>
@@ -1463,13 +1522,16 @@
       <c r="C21" s="2">
         <v>13725261</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="D21" s="17" t="str">
+        <f>cariTER($B21)</f>
+        <v>B</v>
+      </c>
+      <c r="E21" s="18">
+        <f>tarifTER($D21, $C21)</f>
         <v>0.05</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
+        <f>PPH21TER($E21, $C21)</f>
         <v>686263</v>
       </c>
     </row>
@@ -1483,13 +1545,16 @@
       <c r="C22" s="2">
         <v>13274928</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="D22" s="17" t="str">
+        <f>cariTER($B22)</f>
+        <v>B</v>
+      </c>
+      <c r="E22" s="18">
+        <f>tarifTER($D22, $C22)</f>
         <v>0.04</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
+        <f>PPH21TER($E22, $C22)</f>
         <v>530997</v>
       </c>
     </row>
@@ -1503,13 +1568,16 @@
       <c r="C23" s="2">
         <v>9098076</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="D23" s="17" t="str">
+        <f>cariTER($B23)</f>
+        <v>C</v>
+      </c>
+      <c r="E23" s="18">
+        <f>tarifTER($D23, $C23)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
+        <f>PPH21TER($E23, $C23)</f>
         <v>113725</v>
       </c>
     </row>
@@ -1523,13 +1591,16 @@
       <c r="C24" s="2">
         <v>12031712</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="D24" s="17" t="str">
+        <f>cariTER($B24)</f>
+        <v>B</v>
+      </c>
+      <c r="E24" s="18">
+        <f>tarifTER($D24, $C24)</f>
         <v>0.03</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
+        <f>PPH21TER($E24, $C24)</f>
         <v>360951</v>
       </c>
     </row>
@@ -1543,13 +1614,16 @@
       <c r="C25" s="2">
         <v>10323205</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="D25" s="17" t="str">
+        <f>cariTER($B25)</f>
+        <v>C</v>
+      </c>
+      <c r="E25" s="18">
+        <f>tarifTER($D25, $C25)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
+        <f>PPH21TER($E25, $C25)</f>
         <v>154848</v>
       </c>
     </row>
@@ -1563,13 +1637,16 @@
       <c r="C26" s="2">
         <v>11257256</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="20">
+      <c r="D26" s="17" t="str">
+        <f>cariTER($B26)</f>
+        <v>A</v>
+      </c>
+      <c r="E26" s="18">
+        <f>tarifTER($D26, $C26)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
+        <f>PPH21TER($E26, $C26)</f>
         <v>394003</v>
       </c>
     </row>
@@ -1583,13 +1660,16 @@
       <c r="C27" s="2">
         <v>9665804</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="D27" s="17" t="str">
+        <f>cariTER($B27)</f>
+        <v>C</v>
+      </c>
+      <c r="E27" s="18">
+        <f>tarifTER($D27, $C27)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="19">
+        <f>PPH21TER($E27, $C27)</f>
         <v>120822</v>
       </c>
     </row>
@@ -1603,13 +1683,16 @@
       <c r="C28" s="2">
         <v>7306218</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="20">
+      <c r="D28" s="17" t="str">
+        <f>cariTER($B28)</f>
+        <v>C</v>
+      </c>
+      <c r="E28" s="18">
+        <f>tarifTER($D28, $C28)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="19">
+        <f>PPH21TER($E28, $C28)</f>
         <v>36531</v>
       </c>
     </row>
@@ -1623,13 +1706,16 @@
       <c r="C29" s="2">
         <v>10905258</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="20">
+      <c r="D29" s="17" t="str">
+        <f>cariTER($B29)</f>
+        <v>B</v>
+      </c>
+      <c r="E29" s="18">
+        <f>tarifTER($D29, $C29)</f>
         <v>0.02</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
+        <f>PPH21TER($E29, $C29)</f>
         <v>218105</v>
       </c>
     </row>
@@ -1643,13 +1729,16 @@
       <c r="C30" s="2">
         <v>14046181</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="20">
+      <c r="D30" s="17" t="str">
+        <f>cariTER($B30)</f>
+        <v>B</v>
+      </c>
+      <c r="E30" s="18">
+        <f>tarifTER($D30, $C30)</f>
         <v>0.05</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
+        <f>PPH21TER($E30, $C30)</f>
         <v>702309</v>
       </c>
     </row>
@@ -1663,13 +1752,16 @@
       <c r="C31" s="2">
         <v>5764699</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="20">
+      <c r="D31" s="17" t="str">
+        <f>cariTER($B31)</f>
+        <v>C</v>
+      </c>
+      <c r="E31" s="18">
+        <f>tarifTER($D31, $C31)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="19">
+        <f>PPH21TER($E31, $C31)</f>
         <v>0</v>
       </c>
     </row>
@@ -1683,13 +1775,16 @@
       <c r="C32" s="2">
         <v>9461519</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="20">
+      <c r="D32" s="17" t="str">
+        <f>cariTER($B32)</f>
+        <v>C</v>
+      </c>
+      <c r="E32" s="18">
+        <f>tarifTER($D32, $C32)</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="19">
+        <f>PPH21TER($E32, $C32)</f>
         <v>118268</v>
       </c>
     </row>
@@ -1697,7 +1792,7 @@
       <c r="E33" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="19">
         <f>SUM($F$2:$F$32)</f>
         <v>8158421</v>
       </c>
@@ -1708,7 +1803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBEB91C-543A-4FC6-BF13-83113EB41BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E8E7D0-6EDD-4FF3-808D-1E0D16BE6A0D}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K61"/>
   <sheetViews>
@@ -1750,20 +1845,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="E2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -3004,10 +3099,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="16" t="s">
         <v>47</v>
       </c>
